--- a/test.xlsx
+++ b/test.xlsx
@@ -339,24 +339,24 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -336,27 +336,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>2</v>
       </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tomcik/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tomcik/Desktop/hello-world-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -336,36 +336,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>2</v>
       </c>
       <c r="B1">
         <v>3</v>
       </c>
+      <c r="C1">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
+      <c r="C2">
+        <v>54</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>5</v>
+      </c>
+      <c r="C3">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
